--- a/data/trans_dic/P57_R2-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P57_R2-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>38,12; 48,26</t>
+          <t>38,47; 48,28</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>58,56; 75,13</t>
+          <t>58,64; 74,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>38,61; 48,13</t>
+          <t>38,92; 48,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>51,77; 66,41</t>
+          <t>51,78; 66,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,6; 46,81</t>
+          <t>40,11; 46,92</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,96; 69,07</t>
+          <t>57,96; 68,85</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>29,24; 37,07</t>
+          <t>29,51; 37,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>46,81; 59,26</t>
+          <t>47,01; 59,91</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>31,16; 39,12</t>
+          <t>31,51; 39,45</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>27,87; 56,01</t>
+          <t>30,06; 55,96</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,8; 37,19</t>
+          <t>31,6; 36,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,99; 55,09</t>
+          <t>37,3; 55,59</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,12; 37,3</t>
+          <t>30,11; 37,13</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>48,01; 57,25</t>
+          <t>48,14; 57,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,23; 34,06</t>
+          <t>26,91; 34,36</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>47,78; 55,06</t>
+          <t>47,45; 54,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>29,53; 34,73</t>
+          <t>29,61; 34,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>48,91; 54,56</t>
+          <t>49,21; 54,67</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>23,2; 30,39</t>
+          <t>23,15; 30,57</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>44,56; 83,01</t>
+          <t>44,56; 82,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,25; 25,78</t>
+          <t>19,27; 26,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,87; 40,99</t>
+          <t>31,89; 40,73</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,2; 27,29</t>
+          <t>22,2; 27,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>40,61; 70,37</t>
+          <t>40,68; 71,05</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>22,26; 30,64</t>
+          <t>21,73; 29,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,73; 39,33</t>
+          <t>31,27; 39,21</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,14; 23,68</t>
+          <t>16,42; 24,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28,61; 34,51</t>
+          <t>28,54; 34,3</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>19,93; 25,95</t>
+          <t>20,05; 25,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,74; 35,72</t>
+          <t>30,98; 35,91</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,33; 29,55</t>
+          <t>20,14; 29,85</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>35,16; 43,53</t>
+          <t>35,64; 43,73</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,0; 20,96</t>
+          <t>12,65; 21,23</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,34; 34,29</t>
+          <t>9,46; 34,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 23,86</t>
+          <t>17,42; 23,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>14,11; 37,3</t>
+          <t>15,43; 37,33</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,37; 23,09</t>
+          <t>14,43; 23,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>28,15; 36,83</t>
+          <t>27,97; 36,88</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>9,35; 17,97</t>
+          <t>9,27; 17,23</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>22,35; 28,72</t>
+          <t>22,57; 28,72</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,48; 18,54</t>
+          <t>12,43; 18,55</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>25,87; 31,09</t>
+          <t>25,88; 31,03</t>
         </is>
       </c>
     </row>
@@ -1199,32 +1200,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>28,83; 31,95</t>
+          <t>28,9; 32,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>46,14; 62,01</t>
+          <t>46,31; 62,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,87; 28,01</t>
+          <t>24,88; 27,82</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>30,93; 41,31</t>
+          <t>30,84; 41,11</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>27,24; 29,47</t>
+          <t>27,15; 29,37</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>40,27; 49,69</t>
+          <t>40,66; 50,15</t>
         </is>
       </c>
     </row>
@@ -1252,4 +1253,1071 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con autopercepción de la felicidad mayor o igual a 9 (Likert 0 a 10)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>182032</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>268252</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>171405</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>185497</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>353437</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>453749</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>161381; 202514</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>234536; 298238</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>152848; 191357</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>162186; 207538</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>325744; 381072</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>413329; 490997</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>194937</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>226278</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>197501</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>240097</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>392437</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>466375</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>172934; 220827</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>199092; 253751</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>176171; 220571</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>153471; 285709</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>361884; 422387</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>348449; 519241</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>683</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>224317</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>281038</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>202354</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>278091</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>426670</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>559129</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>200634; 247360</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>258196; 305821</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>177735; 226909</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>257069; 295146</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>392787; 461539</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>530494; 589436</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>730</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>171175</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>540461</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>144501</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>264998</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>315676</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>805459</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>148787; 196472</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>395597; 733669</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>124418; 169248</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>225498; 287965</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>286035; 349322</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>648755; 1133095</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>123753</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>196324</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>98446</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>171703</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>222199</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>368027</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>103627; 142554</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>174335; 218608</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>81421; 119547</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>155520; 186911</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>194992; 251238</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>341537; 395846</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>82004</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>144672</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>62444</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>135187</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>144447</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>279859</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>66952; 99205</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>130449; 160044</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>47785; 80207</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>57443; 210013</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>123731; 168433</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>150166; 363310</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>47979</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>90119</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>52073</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>105811</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>100052</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>195930</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>37094; 59453</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>77888; 102705</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>36746; 68304</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>93786; 119314</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>81225; 121211</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>179593; 215344</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1420</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>897</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1867</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>3436</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>1026196</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>1747144</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>928723</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>1381383</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1954919</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3128528</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>977133; 1087918</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>1597551; 2146360</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>877663; 981482</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>1122807; 1496713</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>1875864; 2028846</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>2883072; 3555898</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>